--- a/Data/EUDA/Tampon/age_traitement_deja_traite.xlsx
+++ b/Data/EUDA/Tampon/age_traitement_deja_traite.xlsx
@@ -441,77 +441,77 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mean age.deja</t>
+          <t>Mean age.deja.age_trait</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>&amp;lt;15.deja</t>
+          <t>&amp;lt;15.deja.age_trait</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>15 to 19.deja</t>
+          <t>15 to 19.deja.age_trait</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>20 to 24.deja</t>
+          <t>20 to 24.deja.age_trait</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>25 to 29.deja</t>
+          <t>25 to 29.deja.age_trait</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>30 to 34.deja</t>
+          <t>30 to 34.deja.age_trait</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>35 to 39.deja</t>
+          <t>35 to 39.deja.age_trait</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>40 to 44.deja</t>
+          <t>40 to 44.deja.age_trait</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>45 to 49.deja</t>
+          <t>45 to 49.deja.age_trait</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>50 to 54.deja</t>
+          <t>50 to 54.deja.age_trait</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>55 to 59.deja</t>
+          <t>55 to 59.deja.age_trait</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>60 to 64.deja</t>
+          <t>60 to 64.deja.age_trait</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 64.deja</t>
+          <t xml:space="preserve"> &gt; 64.deja.age_trait</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing.deja</t>
+          <t>Not known / missing.deja.age_trait</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Total.deja</t>
+          <t>Total.deja.age_trait</t>
         </is>
       </c>
     </row>
